--- a/mf-intelligence/data/separated_files/sbi/SBI Quant Fund/SBI Quant Fund_Aug_2025.xlsx
+++ b/mf-intelligence/data/separated_files/sbi/SBI Quant Fund/SBI Quant Fund_Aug_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1050 +436,815 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Name of the Instrument / Issuer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name of the Instrument / Issuer</t>
+          <t>Rating / Industry^</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rating / Industry^</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Market value
 (Rs. in Lakhs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% to AUM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>YTM %</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>YTC % ##</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>100006</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HDFC Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INE040A01034</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HDFC Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INE040A01034</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>3094602</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29448.23</v>
+      </c>
       <c r="F2" t="n">
-        <v>3094602</v>
-      </c>
-      <c r="G2" t="n">
-        <v>29448.23</v>
-      </c>
-      <c r="H2" t="n">
         <v>8.18</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>100003</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Infosys Ltd.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INE009A01021</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Infosys Ltd.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INE009A01021</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>1851241</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27205.84</v>
+      </c>
       <c r="F3" t="n">
-        <v>1851241</v>
-      </c>
-      <c r="G3" t="n">
-        <v>27205.84</v>
-      </c>
-      <c r="H3" t="n">
         <v>7.55</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
-        <v>100125</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Ltd.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INE296A01032</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bajaj Finance Ltd.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INE296A01032</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>2603584</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22855.56</v>
+      </c>
       <c r="F4" t="n">
-        <v>2603584</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22855.56</v>
-      </c>
-      <c r="H4" t="n">
         <v>6.35</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>100089</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bharat Electronics Ltd.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INE263A01024</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bharat Electronics Ltd.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INE263A01024</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>5691928</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21025.98</v>
+      </c>
       <c r="F5" t="n">
-        <v>5691928</v>
-      </c>
-      <c r="G5" t="n">
-        <v>21025.98</v>
-      </c>
-      <c r="H5" t="n">
         <v>5.84</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>100012</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ICICI Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INE090A01021</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ICICI Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INE090A01021</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>1431910</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20015.24</v>
+      </c>
       <c r="F6" t="n">
-        <v>1431910</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20015.24</v>
-      </c>
-      <c r="H6" t="n">
         <v>5.56</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>100465</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Interglobe Aviation Ltd.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INE646L01027</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Interglobe Aviation Ltd.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>INE646L01027</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Transport Services</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>341587</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19286</v>
+      </c>
       <c r="F7" t="n">
-        <v>341587</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19286</v>
-      </c>
-      <c r="H7" t="n">
         <v>5.35</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
-        <v>100179</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hero MotoCorp Ltd.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INE158A01026</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hero MotoCorp Ltd.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>INE158A01026</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>373454</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19000.22</v>
+      </c>
       <c r="F8" t="n">
-        <v>373454</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19000.22</v>
-      </c>
-      <c r="H8" t="n">
         <v>5.27</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>100814</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HDFC Asset Management Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INE127D01025</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HDFC Asset Management Co. Ltd.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INE127D01025</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>331340</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18101.1</v>
+      </c>
       <c r="F9" t="n">
-        <v>331340</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18101.1</v>
-      </c>
-      <c r="H9" t="n">
         <v>5.03</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
-        <v>100663</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AU Small Finance Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INE949L01017</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AU Small Finance Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INE949L01017</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>2217315</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15921.43</v>
+      </c>
       <c r="F10" t="n">
-        <v>2217315</v>
-      </c>
-      <c r="G10" t="n">
-        <v>15921.43</v>
-      </c>
-      <c r="H10" t="n">
         <v>4.42</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="n">
-        <v>100106</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Ltd.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INE585B01010</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Maruti Suzuki India Ltd.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>INE585B01010</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>99839</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14767.19</v>
+      </c>
       <c r="F11" t="n">
-        <v>99839</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14767.19</v>
-      </c>
-      <c r="H11" t="n">
         <v>4.1</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="n">
-        <v>100114</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Shriram Finance Ltd.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INE721A01047</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Shriram Finance Ltd.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>INE721A01047</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>2462026</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14285.91</v>
+      </c>
       <c r="F12" t="n">
-        <v>2462026</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14285.91</v>
-      </c>
-      <c r="H12" t="n">
         <v>3.97</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
-        <v>100091</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Indus Towers Ltd.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INE121J01017</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Indus Towers Ltd.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>INE121J01017</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Telecom - Services</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>3955702</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13394.01</v>
+      </c>
       <c r="F13" t="n">
-        <v>3955702</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13394.01</v>
-      </c>
-      <c r="H13" t="n">
         <v>3.72</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="n">
-        <v>100105</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Marico Ltd.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INE196A01026</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Marico Ltd.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INE196A01026</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>1625082</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11795.66</v>
+      </c>
       <c r="F14" t="n">
-        <v>1625082</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11795.66</v>
-      </c>
-      <c r="H14" t="n">
         <v>3.27</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="n">
-        <v>100099</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Ltd.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INE030A01027</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hindustan Unilever Ltd.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INE030A01027</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>400914</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10663.51</v>
+      </c>
       <c r="F15" t="n">
-        <v>400914</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10663.51</v>
-      </c>
-      <c r="H15" t="n">
         <v>2.96</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
-        <v>100365</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ashok Leyland Ltd.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INE208A01029</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ashok Leyland Ltd.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INE208A01029</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>7587961</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9635.190000000001</v>
+      </c>
       <c r="F16" t="n">
-        <v>7587961</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9635.190000000001</v>
-      </c>
-      <c r="H16" t="n">
         <v>2.67</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="n">
-        <v>100231</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Muthoot Finance Ltd.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INE414G01012</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Muthoot Finance Ltd.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INE414G01012</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>362003</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9548.92</v>
+      </c>
       <c r="F17" t="n">
-        <v>362003</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9548.92</v>
-      </c>
-      <c r="H17" t="n">
         <v>2.65</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="n">
-        <v>100033</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Indian Bank</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INE562A01011</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Indian Bank</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INE562A01011</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>1440303</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9406.620000000001</v>
+      </c>
       <c r="F18" t="n">
-        <v>1440303</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9406.620000000001</v>
-      </c>
-      <c r="H18" t="n">
         <v>2.61</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="n">
-        <v>100442</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Coromandel International Ltd.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INE169A01031</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Coromandel International Ltd.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INE169A01031</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>407069</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9399.629999999999</v>
+      </c>
       <c r="F19" t="n">
-        <v>407069</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9399.629999999999</v>
-      </c>
-      <c r="H19" t="n">
         <v>2.61</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="n">
-        <v>100128</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Eicher Motors Ltd.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INE066A01021</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Eicher Motors Ltd.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INE066A01021</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>120894</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7378.16</v>
+      </c>
       <c r="F20" t="n">
-        <v>120894</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7378.16</v>
-      </c>
-      <c r="H20" t="n">
         <v>2.05</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="n">
-        <v>100035</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NMDC Ltd.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INE584A01023</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NMDC Ltd.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INE584A01023</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Minerals &amp; Mining</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>9574405</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6587.19</v>
+      </c>
       <c r="F21" t="n">
-        <v>9574405</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6587.19</v>
-      </c>
-      <c r="H21" t="n">
         <v>1.83</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="n">
-        <v>100161</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cummins India Ltd.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INE298A01020</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cummins India Ltd.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INE298A01020</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>163404</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6252.16</v>
+      </c>
       <c r="F22" t="n">
-        <v>163404</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6252.16</v>
-      </c>
-      <c r="H22" t="n">
         <v>1.74</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
-        <v>100306</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Abbott India Ltd.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INE358A01014</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Abbott India Ltd.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INE358A01014</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>19856</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6250.67</v>
+      </c>
       <c r="F23" t="n">
-        <v>19856</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6250.67</v>
-      </c>
-      <c r="H23" t="n">
         <v>1.74</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="n">
-        <v>100011</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Wipro Ltd.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INE075A01022</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wipro Ltd.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INE075A01022</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>2462950</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6142.84</v>
+      </c>
       <c r="F24" t="n">
-        <v>2462950</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6142.84</v>
-      </c>
-      <c r="H24" t="n">
         <v>1.71</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="n">
-        <v>100100</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hindustan Petroleum Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INE094A01015</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INE094A01015</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>1627664</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6118.39</v>
+      </c>
       <c r="F25" t="n">
-        <v>1627664</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6118.39</v>
-      </c>
-      <c r="H25" t="n">
         <v>1.7</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>100200</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Page Industries Ltd.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INE761H01022</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Page Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INE761H01022</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Textiles &amp; Apparels</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>12701</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5630.99</v>
+      </c>
       <c r="F26" t="n">
-        <v>12701</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5630.99</v>
-      </c>
-      <c r="H26" t="n">
         <v>1.56</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="n">
-        <v>100565</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Glaxosmithkline Pharmaceuticals Ltd.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INE159A01016</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Glaxosmithkline Pharmaceuticals Ltd.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INE159A01016</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>135193</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3765.13</v>
+      </c>
       <c r="F27" t="n">
-        <v>135193</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3765.13</v>
-      </c>
-      <c r="H27" t="n">
         <v>1.05</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="n">
-        <v>100029</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mphasis Ltd.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INE356A01018</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mphasis Ltd.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INE356A01018</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>121344</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3383.07</v>
+      </c>
       <c r="F28" t="n">
-        <v>121344</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3383.07</v>
-      </c>
-      <c r="H28" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="n">
-        <v>100002</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INE002A01018</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INE002A01018</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>223436</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3032.47</v>
+      </c>
       <c r="F29" t="n">
-        <v>223436</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3032.47</v>
-      </c>
-      <c r="H29" t="n">
         <v>0.84</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="n">
-        <v>100260</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Solar Industries India Ltd.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INE343H01029</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solar Industries India Ltd.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>INE343H01029</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>14408</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1987.58</v>
+      </c>
       <c r="F30" t="n">
-        <v>14408</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1987.58</v>
-      </c>
-      <c r="H30" t="n">
         <v>0.55</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="n">
-        <v>100196</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Berger Paints India Ltd.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>INE463A01038</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Berger Paints India Ltd.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>INE463A01038</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>243242</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1296.48</v>
+      </c>
       <c r="F31" t="n">
-        <v>243242</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1296.48</v>
-      </c>
-      <c r="H31" t="n">
         <v>0.36</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
